--- a/demo/template_files/Template_Excel_Portrait.xlsx
+++ b/demo/template_files/Template_Excel_Portrait.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12150"/>
+    <workbookView windowWidth="24000" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t>${img_phpword}</t>
+  </si>
   <si>
     <t>MY INFORMATION (XLSX) PORTRAIT</t>
   </si>
@@ -117,10 +120,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -146,13 +149,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +157,105 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -169,54 +264,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,29 +280,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,30 +292,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -305,43 +308,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,49 +428,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,55 +464,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,25 +488,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,6 +705,54 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,24 +772,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -754,36 +787,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -797,7 +800,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -806,148 +812,148 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1359,10 +1365,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A1" sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="15"/>
@@ -1375,280 +1381,294 @@
     <col min="10" max="13" width="11.7809523809524" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" spans="1:13">
+    <row r="1" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
+      <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
+      <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" ht="12" customHeight="1" spans="1:13">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="21" spans="1:13">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:13">
-      <c r="A3" s="6" t="s">
+    <row r="3" ht="12" customHeight="1" spans="1:13">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="24"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:13">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="25"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:13">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="26"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:13">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
       <c r="M6" s="27"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:13">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="28"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:13">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:13">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="16"/>
+      <c r="K9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:13">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="16"/>
+      <c r="K10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:13">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="16"/>
+      <c r="K11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="28"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:13">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="28"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="29"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:13">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
       <c r="I13" s="23"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
       <c r="M13" s="29"/>
     </row>
+    <row r="14" ht="18" customHeight="1" spans="1:13">
+      <c r="A14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="30"/>
+    </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="32">
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A4:M4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="A6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="A7:M7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="I8:J8"/>
@@ -1662,11 +1682,15 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="K10:M10"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:M11"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:M11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:M12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:M13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:M14"/>
   </mergeCells>
   <pageMargins left="0.16" right="0.16" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/demo/template_files/Template_Excel_Portrait.xlsx
+++ b/demo/template_files/Template_Excel_Portrait.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9600"/>
+    <workbookView windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="2" r:id="rId1"/>
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>${img_phpword}</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>MY INFORMATION (XLSX) PORTRAIT</t>
   </si>
@@ -120,10 +117,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -157,6 +154,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -165,22 +176,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,58 +239,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,6 +268,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -280,13 +284,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -308,187 +305,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,6 +702,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,21 +745,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -800,160 +797,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1365,10 +1359,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:M1"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="15"/>
@@ -1381,294 +1375,280 @@
     <col min="10" max="13" width="11.7809523809524" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" ht="21" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="C1" s="3"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="I1" s="3"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" ht="21" spans="1:13">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="12" customHeight="1" spans="1:13">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
     </row>
-    <row r="3" ht="12" customHeight="1" spans="1:13">
-      <c r="A3" s="5" t="s">
+    <row r="3" ht="18" customHeight="1" spans="1:13">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="24"/>
     </row>
     <row r="4" ht="18" customHeight="1" spans="1:13">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="25"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" ht="18" customHeight="1" spans="1:13">
-      <c r="A5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="12" t="s">
+      <c r="A5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="26"/>
     </row>
     <row r="6" ht="18" customHeight="1" spans="1:13">
-      <c r="A6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15" t="s">
+      <c r="A6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
       <c r="M6" s="27"/>
     </row>
     <row r="7" ht="18" customHeight="1" spans="1:13">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="28"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:13">
-      <c r="A8" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="15" t="s">
+      <c r="A8" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="15"/>
+      <c r="K8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
     </row>
     <row r="9" ht="18" customHeight="1" spans="1:13">
-      <c r="A9" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="15" t="s">
+      <c r="A9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="15"/>
+      <c r="K9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
     </row>
     <row r="10" ht="18" customHeight="1" spans="1:13">
-      <c r="A10" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="15" t="s">
+      <c r="A10" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="K10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
     </row>
     <row r="11" ht="18" customHeight="1" spans="1:13">
-      <c r="A11" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="15" t="s">
+      <c r="A11" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="28"/>
     </row>
     <row r="12" ht="18" customHeight="1" spans="1:13">
-      <c r="A12" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="22" t="s">
+      <c r="A12" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="29"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="28"/>
     </row>
     <row r="13" ht="18" customHeight="1" spans="1:13">
-      <c r="A13" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="22" t="s">
+      <c r="A13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
       <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
       <c r="M13" s="29"/>
     </row>
-    <row r="14" ht="18" customHeight="1" spans="1:13">
-      <c r="A14" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="30"/>
-    </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="31">
     <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="I4:M4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:G5"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:M7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="I8:J8"/>
@@ -1682,15 +1662,11 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="K10:M10"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="C11:M11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:M12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:M13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:M14"/>
   </mergeCells>
   <pageMargins left="0.16" right="0.16" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
